--- a/Intervention 1/Scenario Analysis Intervention Frequency Village.xlsx
+++ b/Intervention 1/Scenario Analysis Intervention Frequency Village.xlsx
@@ -62,25 +62,25 @@
     <t>10</t>
   </si>
   <si>
-    <t>-968354736.041763</t>
-  </si>
-  <si>
-    <t>819261808.974176</t>
-  </si>
-  <si>
-    <t>1713070081.48215</t>
-  </si>
-  <si>
-    <t>2249355044.98693</t>
-  </si>
-  <si>
-    <t>772.107160725922</t>
-  </si>
-  <si>
-    <t>2574143.94433136</t>
-  </si>
-  <si>
-    <t>4880619.69514728</t>
+    <t>-936722091.828046</t>
+  </si>
+  <si>
+    <t>850894453.187894</t>
+  </si>
+  <si>
+    <t>1744702725.69586</t>
+  </si>
+  <si>
+    <t>2280987689.20065</t>
+  </si>
+  <si>
+    <t>3732.83737464552</t>
+  </si>
+  <si>
+    <t>9586774.16410338</t>
+  </si>
+  <si>
+    <t>29500633.6890926</t>
   </si>
   <si>
     <t>1772849670.99982</t>
